--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\desertHydro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PackageDev\desertHydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C981EF2C-9CF4-4937-AF9E-B77CE3676308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8F4DD-0853-4251-AD2B-74446AE41502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-24960" yWindow="4215" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,10 +81,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -90,20 +103,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,402 +496,402 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.79050431557075096</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.43354407704792902</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.119886737287141</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.19862373454969001</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.70847637452504397</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0.50579402286665498</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.44378445920505499</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>0.32605977952169501</v>
       </c>
       <c r="K2" s="3">
         <v>0.363940099718771</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0.79050431557075096</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.53749720698006997</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>4.71269747088566E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0.14734311954340601</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.31495951845278503</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>0.78685754016726706</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>0.52265875418072805</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>0.410251401780029</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>0.52446465630643302</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>0.43354407704792902</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0.53749720698006997</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.32636219212268802</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.51148476770206996</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.31445299863215298</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>0.33063777774835301</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>0.67914835938649498</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>0.93237412953988796</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>0.51657941889641801</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>0.119886737287141</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>4.71269747088566E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.32636219212268802</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.88880668127092999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.15504195205390001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>5.3396467156653204E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>0.26294763270893701</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>0.293329928657665</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>8.1659408148952797E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.19862373454969001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.14734311954340601</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.51148476770206996</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.88880668127092999</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.24280444047466501</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>3.9248258452772203E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>0.44637034329548603</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>0.43567379871946998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>0.232093491349287</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.70847637452504397</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0.31495951845278503</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0.31445299863215298</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.15504195205390001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0.24280444047466501</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>-5.8102640572185199E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>0.17577559069248</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>0.30650990793661498</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>0.20313796686845401</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.50579402286665498</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.78685754016726706</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.33063777774835301</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>5.3396467156653204E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3.9248258452772203E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>-5.8102640572185199E-2</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.49584825632103802</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>0.167608027331207</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>0.40946716607167899</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.44378445920505499</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0.52265875418072805</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.67914835938649498</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.26294763270893701</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.44637034329548603</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>0.17577559069248</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.49584825632103802</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
         <v>0.37238804935787601</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>0.60639432391971304</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.32605977952169501</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>0.410251401780029</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.93237412953988796</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.293329928657665</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.43567379871946998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>0.30650990793661498</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.167608027331207</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>0.37238804935787601</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <v>0.306030505512002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>0.363940099718771</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.52446465630643302</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.51657941889641801</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>8.1659408148952797E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>0.232093491349287</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>0.20313796686845401</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>0.40946716607167899</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>0.60639432391971304</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>0.306030505512002</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
     </row>
